--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_28_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_28_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118029.3569538499</v>
+        <v>20764140.08929335</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118029.3569538499</v>
+        <v>20764140.08929335</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2018.286715436557</v>
+        <v>155671.3535449593</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2018.286715436557</v>
+        <v>155671.3535449593</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958840922.3794943</v>
+        <v>39110517.70926408</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7619.614837994827</v>
+        <v>873156.9302638592</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14510.35629485018</v>
+        <v>1658211.423334406</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21455.88675430097</v>
+        <v>2443265.916404955</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28574.48276819139</v>
+        <v>3228986.531951834</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35592.32173780856</v>
+        <v>4014622.382600015</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>42682.28617176151</v>
+        <v>4800258.233248196</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>49696.54953794702</v>
+        <v>5585894.083896373</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>56768.63925918442</v>
+        <v>6371529.934544551</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>63834.41750223513</v>
+        <v>7157348.004973002</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>70868.61747102752</v>
+        <v>7943133.672920618</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>78049.33996874555</v>
+        <v>8728919.340868266</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>85053.25719402096</v>
+        <v>9514393.710403191</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>92134.54988572665</v>
+        <v>10299918.86747374</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99182.52291047691</v>
+        <v>11077075.42247013</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>106303.5344003693</v>
+        <v>11855071.35461783</v>
       </c>
     </row>
   </sheetData>
